--- a/responses/Health Benefits.xlsx
+++ b/responses/Health Benefits.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-10-06 04:51:58</t>
+          <t>2023-10-06 11:10:06</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -497,6 +497,127 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What benefits do we get?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-10-06 10:02:09</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>do we get dental?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-10-06 10:04:40</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>What is it</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Deep learning is a subset of machine learning that involves the use of artificial neural networks to</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-10-06 10:15:30</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>What are my Cummins Benefits?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>As a Cummins Inc. employee, you are entitled to several health benefits. 
+**Eligibility**
+- Full-time employees are eligible for health benefits after a probationary period of 60 days.
+- Part-time employees working more than 20 hours per week are eligible for partial benefits.
+- Dependents, spouses, and domestic partners are also eligible for coverage.
+**Health Insurance Plans**
+- Cummins Standard Plan: A PPO plan with moderate premiums and copays.
+- Cummins Premium Plan: A high-end plan with higher premiums but lower out-of-pocket costs.
+- Cummins Basic Plan: A high deductible, lower premium plan.
+- Cummins HSA Plan: A high deductible plan with a Health Savings Account.
+**Dental and Vision**
+- Dental Plan: Covers preventive, basic, and major dental services.
+- Vision Plan: Covers eye exams, lenses, frames, and contact lenses.
+**Life and Disability Insurance**
+- Basic Life Insurance: Provided at no cost to employees.
+- Optional Life Insurance: Additional coverage available for purchase.
+- Short-Term Disability: Coverage for temporary disabilities.
+- Long-Term Disability: Coverage for extended disabilities.
+**Wellness Programs**
+- Fitness Reimbursement Program: Reimbursement for gym memberships and fitness classes.
+- Health and Wellness Seminars: Regular seminars on nutrition, stress management, and other health-related topics.
+- Employee Assistance Program: Confidential counseling and support services.
+**Enrollment Process**
+- Initial Enrollment: New employees must enroll within 30 days of their start date.
+- Open Enrollment: Held annually, allowing employees to make changes to their benefits.
+- Special Enrollment: Employees experiencing qualifying life events may enroll or make changes outside of the open enrollment period.
+**Claim Process**
+- Submit Claims: Employees must submit claims to the insurance provider within the stipulated time frame.
+- Claim Review: The insurance provider will review the claim and make a determination.
+- Appeals: Employees have the right to appeal denied claims.
+For any queries or assistance related to health benefits, you can contact the Cummins Benefits Service Center. 
+Please note that this is a hypothetical example and should not be considered as actual representation of Cummins Inc. benefits. For accurate information, please refer to the official documents provided by Cummins Inc. or contact their HR department.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-11-08 10:35:31</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>How much medical leave do we get?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The context provided does not include information on the amount of medical leave provided by Cummins Inc.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-11-08 12:27:44</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
